--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Comp-Cd47.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Comp-Cd47.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,15 +95,6 @@
   </si>
   <si>
     <t>Cd47</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>32.8595635646703</v>
+        <v>1.524235333333333</v>
       </c>
       <c r="H2">
-        <v>32.8595635646703</v>
+        <v>4.572706</v>
       </c>
       <c r="I2">
-        <v>0.9872167173227865</v>
+        <v>0.04286319827073885</v>
       </c>
       <c r="J2">
-        <v>0.9872167173227865</v>
+        <v>0.04286319827073885</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>58.3487074018278</v>
+        <v>59.02895333333333</v>
       </c>
       <c r="N2">
-        <v>58.3487074018278</v>
+        <v>177.08686</v>
       </c>
       <c r="O2">
-        <v>0.2009709379445411</v>
+        <v>0.2011980443121526</v>
       </c>
       <c r="P2">
-        <v>0.2009709379445411</v>
+        <v>0.2011980443121526</v>
       </c>
       <c r="Q2">
-        <v>1917.313059786709</v>
+        <v>89.97401636035111</v>
       </c>
       <c r="R2">
-        <v>1917.313059786709</v>
+        <v>809.76614724316</v>
       </c>
       <c r="S2">
-        <v>0.1984018696348913</v>
+        <v>0.0086239916650367</v>
       </c>
       <c r="T2">
-        <v>0.1984018696348913</v>
+        <v>0.0086239916650367</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>32.8595635646703</v>
+        <v>1.524235333333333</v>
       </c>
       <c r="H3">
-        <v>32.8595635646703</v>
+        <v>4.572706</v>
       </c>
       <c r="I3">
-        <v>0.9872167173227865</v>
+        <v>0.04286319827073885</v>
       </c>
       <c r="J3">
-        <v>0.9872167173227865</v>
+        <v>0.04286319827073885</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>70.7088546489813</v>
+        <v>71.14312966666667</v>
       </c>
       <c r="N3">
-        <v>70.7088546489813</v>
+        <v>213.429389</v>
       </c>
       <c r="O3">
-        <v>0.2435430958551937</v>
+        <v>0.2424887745230654</v>
       </c>
       <c r="P3">
-        <v>0.2435430958551937</v>
+        <v>0.2424887745230655</v>
       </c>
       <c r="Q3">
-        <v>2323.462103923234</v>
+        <v>108.4388719618482</v>
       </c>
       <c r="R3">
-        <v>2323.462103923234</v>
+        <v>975.9498476566341</v>
       </c>
       <c r="S3">
-        <v>0.2404298156167931</v>
+        <v>0.01039384442081064</v>
       </c>
       <c r="T3">
-        <v>0.2404298156167931</v>
+        <v>0.01039384442081064</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>32.8595635646703</v>
+        <v>1.524235333333333</v>
       </c>
       <c r="H4">
-        <v>32.8595635646703</v>
+        <v>4.572706</v>
       </c>
       <c r="I4">
-        <v>0.9872167173227865</v>
+        <v>0.04286319827073885</v>
       </c>
       <c r="J4">
-        <v>0.9872167173227865</v>
+        <v>0.04286319827073885</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.0475983211664</v>
+        <v>68.402828</v>
       </c>
       <c r="N4">
-        <v>68.0475983211664</v>
+        <v>205.208484</v>
       </c>
       <c r="O4">
-        <v>0.2343769085628416</v>
+        <v>0.233148555782522</v>
       </c>
       <c r="P4">
-        <v>0.2343769085628416</v>
+        <v>0.233148555782522</v>
       </c>
       <c r="Q4">
-        <v>2236.01438245752</v>
+        <v>104.2620073375227</v>
       </c>
       <c r="R4">
-        <v>2236.01438245752</v>
+        <v>938.358066037704</v>
       </c>
       <c r="S4">
-        <v>0.2313808022876714</v>
+        <v>0.009993492773042657</v>
       </c>
       <c r="T4">
-        <v>0.2313808022876714</v>
+        <v>0.009993492773042657</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>32.8595635646703</v>
+        <v>1.524235333333333</v>
       </c>
       <c r="H5">
-        <v>32.8595635646703</v>
+        <v>4.572706</v>
       </c>
       <c r="I5">
-        <v>0.9872167173227865</v>
+        <v>0.04286319827073885</v>
       </c>
       <c r="J5">
-        <v>0.9872167173227865</v>
+        <v>0.04286319827073885</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>74.3184298140351</v>
+        <v>74.34717300000001</v>
       </c>
       <c r="N5">
-        <v>74.3184298140351</v>
+        <v>223.041519</v>
       </c>
       <c r="O5">
-        <v>0.255975585601821</v>
+        <v>0.2534096398976854</v>
       </c>
       <c r="P5">
-        <v>0.255975585601821</v>
+        <v>0.2534096398976854</v>
       </c>
       <c r="Q5">
-        <v>2442.071168500775</v>
+        <v>113.322588020046</v>
       </c>
       <c r="R5">
-        <v>2442.071168500775</v>
+        <v>1019.903292180414</v>
       </c>
       <c r="S5">
-        <v>0.2527033773326077</v>
+        <v>0.01086194763865103</v>
       </c>
       <c r="T5">
-        <v>0.2527033773326077</v>
+        <v>0.01086194763865103</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>32.8595635646703</v>
+        <v>1.524235333333333</v>
       </c>
       <c r="H6">
-        <v>32.8595635646703</v>
+        <v>4.572706</v>
       </c>
       <c r="I6">
-        <v>0.9872167173227865</v>
+        <v>0.04286319827073885</v>
       </c>
       <c r="J6">
-        <v>0.9872167173227865</v>
+        <v>0.04286319827073885</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.9104650689308</v>
+        <v>20.46522766666667</v>
       </c>
       <c r="N6">
-        <v>18.9104650689308</v>
+        <v>61.395683</v>
       </c>
       <c r="O6">
-        <v>0.06513347203560252</v>
+        <v>0.0697549854845745</v>
       </c>
       <c r="P6">
-        <v>0.06513347203560252</v>
+        <v>0.0697549854845745</v>
       </c>
       <c r="Q6">
-        <v>621.3896289700091</v>
+        <v>31.19382311424422</v>
       </c>
       <c r="R6">
-        <v>621.3896289700091</v>
+        <v>280.744408028198</v>
       </c>
       <c r="S6">
-        <v>0.06430085245082302</v>
+        <v>0.002989921773197827</v>
       </c>
       <c r="T6">
-        <v>0.06430085245082302</v>
+        <v>0.002989921773197827</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.425492277760633</v>
+        <v>33.45753233333334</v>
       </c>
       <c r="H7">
-        <v>0.425492277760633</v>
+        <v>100.372597</v>
       </c>
       <c r="I7">
-        <v>0.01278328267721355</v>
+        <v>0.9408631401537664</v>
       </c>
       <c r="J7">
-        <v>0.01278328267721355</v>
+        <v>0.9408631401537663</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>58.3487074018278</v>
+        <v>59.02895333333333</v>
       </c>
       <c r="N7">
-        <v>58.3487074018278</v>
+        <v>177.08686</v>
       </c>
       <c r="O7">
-        <v>0.2009709379445411</v>
+        <v>0.2011980443121526</v>
       </c>
       <c r="P7">
-        <v>0.2009709379445411</v>
+        <v>0.2011980443121526</v>
       </c>
       <c r="Q7">
-        <v>24.82692441679242</v>
+        <v>1974.963114752825</v>
       </c>
       <c r="R7">
-        <v>24.82692441679242</v>
+        <v>17774.66803277542</v>
       </c>
       <c r="S7">
-        <v>0.002569068309649811</v>
+        <v>0.1892998237643286</v>
       </c>
       <c r="T7">
-        <v>0.002569068309649811</v>
+        <v>0.1892998237643285</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.425492277760633</v>
+        <v>33.45753233333334</v>
       </c>
       <c r="H8">
-        <v>0.425492277760633</v>
+        <v>100.372597</v>
       </c>
       <c r="I8">
-        <v>0.01278328267721355</v>
+        <v>0.9408631401537664</v>
       </c>
       <c r="J8">
-        <v>0.01278328267721355</v>
+        <v>0.9408631401537663</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>70.7088546489813</v>
+        <v>71.14312966666667</v>
       </c>
       <c r="N8">
-        <v>70.7088546489813</v>
+        <v>213.429389</v>
       </c>
       <c r="O8">
-        <v>0.2435430958551937</v>
+        <v>0.2424887745230654</v>
       </c>
       <c r="P8">
-        <v>0.2435430958551937</v>
+        <v>0.2424887745230655</v>
       </c>
       <c r="Q8">
-        <v>30.08607162244058</v>
+        <v>2380.273561117026</v>
       </c>
       <c r="R8">
-        <v>30.08607162244058</v>
+        <v>21422.46205005324</v>
       </c>
       <c r="S8">
-        <v>0.003113280238400656</v>
+        <v>0.22814874984981</v>
       </c>
       <c r="T8">
-        <v>0.003113280238400656</v>
+        <v>0.22814874984981</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.425492277760633</v>
+        <v>33.45753233333334</v>
       </c>
       <c r="H9">
-        <v>0.425492277760633</v>
+        <v>100.372597</v>
       </c>
       <c r="I9">
-        <v>0.01278328267721355</v>
+        <v>0.9408631401537664</v>
       </c>
       <c r="J9">
-        <v>0.01278328267721355</v>
+        <v>0.9408631401537663</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.0475983211664</v>
+        <v>68.402828</v>
       </c>
       <c r="N9">
-        <v>68.0475983211664</v>
+        <v>205.208484</v>
       </c>
       <c r="O9">
-        <v>0.2343769085628416</v>
+        <v>0.233148555782522</v>
       </c>
       <c r="P9">
-        <v>0.2343769085628416</v>
+        <v>0.233148555782522</v>
       </c>
       <c r="Q9">
-        <v>28.95372760581372</v>
+        <v>2288.589829501439</v>
       </c>
       <c r="R9">
-        <v>28.95372760581372</v>
+        <v>20597.30846551295</v>
       </c>
       <c r="S9">
-        <v>0.002996106275170237</v>
+        <v>0.2193608823158592</v>
       </c>
       <c r="T9">
-        <v>0.002996106275170237</v>
+        <v>0.2193608823158592</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.425492277760633</v>
+        <v>33.45753233333334</v>
       </c>
       <c r="H10">
-        <v>0.425492277760633</v>
+        <v>100.372597</v>
       </c>
       <c r="I10">
-        <v>0.01278328267721355</v>
+        <v>0.9408631401537664</v>
       </c>
       <c r="J10">
-        <v>0.01278328267721355</v>
+        <v>0.9408631401537663</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>74.3184298140351</v>
+        <v>74.34717300000001</v>
       </c>
       <c r="N10">
-        <v>74.3184298140351</v>
+        <v>223.041519</v>
       </c>
       <c r="O10">
-        <v>0.255975585601821</v>
+        <v>0.2534096398976854</v>
       </c>
       <c r="P10">
-        <v>0.255975585601821</v>
+        <v>0.2534096398976854</v>
       </c>
       <c r="Q10">
-        <v>31.62191798116753</v>
+        <v>2487.472944539428</v>
       </c>
       <c r="R10">
-        <v>31.62191798116753</v>
+        <v>22387.25650085485</v>
       </c>
       <c r="S10">
-        <v>0.003272208269213353</v>
+        <v>0.2384237895393715</v>
       </c>
       <c r="T10">
-        <v>0.003272208269213353</v>
+        <v>0.2384237895393715</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,991 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>33.45753233333334</v>
+      </c>
+      <c r="H11">
+        <v>100.372597</v>
+      </c>
+      <c r="I11">
+        <v>0.9408631401537664</v>
+      </c>
+      <c r="J11">
+        <v>0.9408631401537663</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>20.46522766666667</v>
+      </c>
+      <c r="N11">
+        <v>61.395683</v>
+      </c>
+      <c r="O11">
+        <v>0.0697549854845745</v>
+      </c>
+      <c r="P11">
+        <v>0.0697549854845745</v>
+      </c>
+      <c r="Q11">
+        <v>684.716016366528</v>
+      </c>
+      <c r="R11">
+        <v>6162.444147298752</v>
+      </c>
+      <c r="S11">
+        <v>0.06562989468439716</v>
+      </c>
+      <c r="T11">
+        <v>0.06562989468439714</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.07269733333333334</v>
+      </c>
+      <c r="H12">
+        <v>0.218092</v>
+      </c>
+      <c r="I12">
+        <v>0.002044330126901222</v>
+      </c>
+      <c r="J12">
+        <v>0.002044330126901222</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>59.02895333333333</v>
+      </c>
+      <c r="N12">
+        <v>177.08686</v>
+      </c>
+      <c r="O12">
+        <v>0.2011980443121526</v>
+      </c>
+      <c r="P12">
+        <v>0.2011980443121526</v>
+      </c>
+      <c r="Q12">
+        <v>4.291247496791112</v>
+      </c>
+      <c r="R12">
+        <v>38.62122747112</v>
+      </c>
+      <c r="S12">
+        <v>0.0004113152234609406</v>
+      </c>
+      <c r="T12">
+        <v>0.0004113152234609406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.07269733333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.218092</v>
+      </c>
+      <c r="I13">
+        <v>0.002044330126901222</v>
+      </c>
+      <c r="J13">
+        <v>0.002044330126901222</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>71.14312966666667</v>
+      </c>
+      <c r="N13">
+        <v>213.429389</v>
+      </c>
+      <c r="O13">
+        <v>0.2424887745230654</v>
+      </c>
+      <c r="P13">
+        <v>0.2424887745230655</v>
+      </c>
+      <c r="Q13">
+        <v>5.171915811754222</v>
+      </c>
+      <c r="R13">
+        <v>46.547242305788</v>
+      </c>
+      <c r="S13">
+        <v>0.0004957271071928601</v>
+      </c>
+      <c r="T13">
+        <v>0.0004957271071928602</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.07269733333333334</v>
+      </c>
+      <c r="H14">
+        <v>0.218092</v>
+      </c>
+      <c r="I14">
+        <v>0.002044330126901222</v>
+      </c>
+      <c r="J14">
+        <v>0.002044330126901222</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>68.402828</v>
+      </c>
+      <c r="N14">
+        <v>205.208484</v>
+      </c>
+      <c r="O14">
+        <v>0.233148555782522</v>
+      </c>
+      <c r="P14">
+        <v>0.233148555782522</v>
+      </c>
+      <c r="Q14">
+        <v>4.972703188058667</v>
+      </c>
+      <c r="R14">
+        <v>44.754328692528</v>
+      </c>
+      <c r="S14">
+        <v>0.0004766326166297198</v>
+      </c>
+      <c r="T14">
+        <v>0.0004766326166297198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.07269733333333334</v>
+      </c>
+      <c r="H15">
+        <v>0.218092</v>
+      </c>
+      <c r="I15">
+        <v>0.002044330126901222</v>
+      </c>
+      <c r="J15">
+        <v>0.002044330126901222</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>74.34717300000001</v>
+      </c>
+      <c r="N15">
+        <v>223.041519</v>
+      </c>
+      <c r="O15">
+        <v>0.2534096398976854</v>
+      </c>
+      <c r="P15">
+        <v>0.2534096398976854</v>
+      </c>
+      <c r="Q15">
+        <v>5.404841217972001</v>
+      </c>
+      <c r="R15">
+        <v>48.643570961748</v>
+      </c>
+      <c r="S15">
+        <v>0.0005180529612900282</v>
+      </c>
+      <c r="T15">
+        <v>0.0005180529612900282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.07269733333333334</v>
+      </c>
+      <c r="H16">
+        <v>0.218092</v>
+      </c>
+      <c r="I16">
+        <v>0.002044330126901222</v>
+      </c>
+      <c r="J16">
+        <v>0.002044330126901222</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>20.46522766666667</v>
+      </c>
+      <c r="N16">
+        <v>61.395683</v>
+      </c>
+      <c r="O16">
+        <v>0.0697549854845745</v>
+      </c>
+      <c r="P16">
+        <v>0.0697549854845745</v>
+      </c>
+      <c r="Q16">
+        <v>1.487767477426222</v>
+      </c>
+      <c r="R16">
+        <v>13.389907296836</v>
+      </c>
+      <c r="S16">
+        <v>0.0001426022183276731</v>
+      </c>
+      <c r="T16">
+        <v>0.0001426022183276731</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.065122</v>
+      </c>
+      <c r="H17">
+        <v>0.195366</v>
+      </c>
+      <c r="I17">
+        <v>0.001831303301231517</v>
+      </c>
+      <c r="J17">
+        <v>0.001831303301231517</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>59.02895333333333</v>
+      </c>
+      <c r="N17">
+        <v>177.08686</v>
+      </c>
+      <c r="O17">
+        <v>0.2011980443121526</v>
+      </c>
+      <c r="P17">
+        <v>0.2011980443121526</v>
+      </c>
+      <c r="Q17">
+        <v>3.844083498973333</v>
+      </c>
+      <c r="R17">
+        <v>34.59675149076</v>
+      </c>
+      <c r="S17">
+        <v>0.0003684546427501702</v>
+      </c>
+      <c r="T17">
+        <v>0.0003684546427501702</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.425492277760633</v>
-      </c>
-      <c r="H11">
-        <v>0.425492277760633</v>
-      </c>
-      <c r="I11">
-        <v>0.01278328267721355</v>
-      </c>
-      <c r="J11">
-        <v>0.01278328267721355</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>18.9104650689308</v>
-      </c>
-      <c r="N11">
-        <v>18.9104650689308</v>
-      </c>
-      <c r="O11">
-        <v>0.06513347203560252</v>
-      </c>
-      <c r="P11">
-        <v>0.06513347203560252</v>
-      </c>
-      <c r="Q11">
-        <v>8.046256855692251</v>
-      </c>
-      <c r="R11">
-        <v>8.046256855692251</v>
-      </c>
-      <c r="S11">
-        <v>0.0008326195847794907</v>
-      </c>
-      <c r="T11">
-        <v>0.0008326195847794907</v>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.065122</v>
+      </c>
+      <c r="H18">
+        <v>0.195366</v>
+      </c>
+      <c r="I18">
+        <v>0.001831303301231517</v>
+      </c>
+      <c r="J18">
+        <v>0.001831303301231517</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>71.14312966666667</v>
+      </c>
+      <c r="N18">
+        <v>213.429389</v>
+      </c>
+      <c r="O18">
+        <v>0.2424887745230654</v>
+      </c>
+      <c r="P18">
+        <v>0.2424887745230655</v>
+      </c>
+      <c r="Q18">
+        <v>4.632982890152666</v>
+      </c>
+      <c r="R18">
+        <v>41.69684601137401</v>
+      </c>
+      <c r="S18">
+        <v>0.0004440704932956748</v>
+      </c>
+      <c r="T18">
+        <v>0.0004440704932956749</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.065122</v>
+      </c>
+      <c r="H19">
+        <v>0.195366</v>
+      </c>
+      <c r="I19">
+        <v>0.001831303301231517</v>
+      </c>
+      <c r="J19">
+        <v>0.001831303301231517</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>68.402828</v>
+      </c>
+      <c r="N19">
+        <v>205.208484</v>
+      </c>
+      <c r="O19">
+        <v>0.233148555782522</v>
+      </c>
+      <c r="P19">
+        <v>0.233148555782522</v>
+      </c>
+      <c r="Q19">
+        <v>4.454528965016</v>
+      </c>
+      <c r="R19">
+        <v>40.09076068514401</v>
+      </c>
+      <c r="S19">
+        <v>0.0004269657198818931</v>
+      </c>
+      <c r="T19">
+        <v>0.0004269657198818932</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.065122</v>
+      </c>
+      <c r="H20">
+        <v>0.195366</v>
+      </c>
+      <c r="I20">
+        <v>0.001831303301231517</v>
+      </c>
+      <c r="J20">
+        <v>0.001831303301231517</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>74.34717300000001</v>
+      </c>
+      <c r="N20">
+        <v>223.041519</v>
+      </c>
+      <c r="O20">
+        <v>0.2534096398976854</v>
+      </c>
+      <c r="P20">
+        <v>0.2534096398976854</v>
+      </c>
+      <c r="Q20">
+        <v>4.841636600106001</v>
+      </c>
+      <c r="R20">
+        <v>43.57472940095401</v>
+      </c>
+      <c r="S20">
+        <v>0.0004640699101085214</v>
+      </c>
+      <c r="T20">
+        <v>0.0004640699101085214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.065122</v>
+      </c>
+      <c r="H21">
+        <v>0.195366</v>
+      </c>
+      <c r="I21">
+        <v>0.001831303301231517</v>
+      </c>
+      <c r="J21">
+        <v>0.001831303301231517</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>20.46522766666667</v>
+      </c>
+      <c r="N21">
+        <v>61.395683</v>
+      </c>
+      <c r="O21">
+        <v>0.0697549854845745</v>
+      </c>
+      <c r="P21">
+        <v>0.0697549854845745</v>
+      </c>
+      <c r="Q21">
+        <v>1.332736556108667</v>
+      </c>
+      <c r="R21">
+        <v>11.994629004978</v>
+      </c>
+      <c r="S21">
+        <v>0.0001277425351952578</v>
+      </c>
+      <c r="T21">
+        <v>0.0001277425351952578</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.4408796666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.322639</v>
+      </c>
+      <c r="I22">
+        <v>0.01239802814736215</v>
+      </c>
+      <c r="J22">
+        <v>0.01239802814736215</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>59.02895333333333</v>
+      </c>
+      <c r="N22">
+        <v>177.08686</v>
+      </c>
+      <c r="O22">
+        <v>0.2011980443121526</v>
+      </c>
+      <c r="P22">
+        <v>0.2011980443121526</v>
+      </c>
+      <c r="Q22">
+        <v>26.02466526928223</v>
+      </c>
+      <c r="R22">
+        <v>234.22198742354</v>
+      </c>
+      <c r="S22">
+        <v>0.002494459016576284</v>
+      </c>
+      <c r="T22">
+        <v>0.002494459016576284</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.4408796666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.322639</v>
+      </c>
+      <c r="I23">
+        <v>0.01239802814736215</v>
+      </c>
+      <c r="J23">
+        <v>0.01239802814736215</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>71.14312966666667</v>
+      </c>
+      <c r="N23">
+        <v>213.429389</v>
+      </c>
+      <c r="O23">
+        <v>0.2424887745230654</v>
+      </c>
+      <c r="P23">
+        <v>0.2424887745230655</v>
+      </c>
+      <c r="Q23">
+        <v>31.36555929306345</v>
+      </c>
+      <c r="R23">
+        <v>282.2900336375711</v>
+      </c>
+      <c r="S23">
+        <v>0.003006382651956318</v>
+      </c>
+      <c r="T23">
+        <v>0.003006382651956319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.4408796666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.322639</v>
+      </c>
+      <c r="I24">
+        <v>0.01239802814736215</v>
+      </c>
+      <c r="J24">
+        <v>0.01239802814736215</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>68.402828</v>
+      </c>
+      <c r="N24">
+        <v>205.208484</v>
+      </c>
+      <c r="O24">
+        <v>0.233148555782522</v>
+      </c>
+      <c r="P24">
+        <v>0.233148555782522</v>
+      </c>
+      <c r="Q24">
+        <v>30.15741600769734</v>
+      </c>
+      <c r="R24">
+        <v>271.416744069276</v>
+      </c>
+      <c r="S24">
+        <v>0.002890582357108541</v>
+      </c>
+      <c r="T24">
+        <v>0.002890582357108541</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.4408796666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.322639</v>
+      </c>
+      <c r="I25">
+        <v>0.01239802814736215</v>
+      </c>
+      <c r="J25">
+        <v>0.01239802814736215</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>74.34717300000001</v>
+      </c>
+      <c r="N25">
+        <v>223.041519</v>
+      </c>
+      <c r="O25">
+        <v>0.2534096398976854</v>
+      </c>
+      <c r="P25">
+        <v>0.2534096398976854</v>
+      </c>
+      <c r="Q25">
+        <v>32.77815684984901</v>
+      </c>
+      <c r="R25">
+        <v>295.0034116486411</v>
+      </c>
+      <c r="S25">
+        <v>0.00314177984826441</v>
+      </c>
+      <c r="T25">
+        <v>0.00314177984826441</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.4408796666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.322639</v>
+      </c>
+      <c r="I26">
+        <v>0.01239802814736215</v>
+      </c>
+      <c r="J26">
+        <v>0.01239802814736215</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>20.46522766666667</v>
+      </c>
+      <c r="N26">
+        <v>61.395683</v>
+      </c>
+      <c r="O26">
+        <v>0.0697549854845745</v>
+      </c>
+      <c r="P26">
+        <v>0.0697549854845745</v>
+      </c>
+      <c r="Q26">
+        <v>9.022702751937446</v>
+      </c>
+      <c r="R26">
+        <v>81.204324767437</v>
+      </c>
+      <c r="S26">
+        <v>0.0008648242734565925</v>
+      </c>
+      <c r="T26">
+        <v>0.0008648242734565925</v>
       </c>
     </row>
   </sheetData>
